--- a/types/j.xlsx
+++ b/types/j.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -510,13 +510,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>540</v>
+        <v>1030</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>3.375</v>
       </c>
       <c r="D4" t="n">
-        <v>239</v>
+        <v>90</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -527,13 +527,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>580</v>
+        <v>1060</v>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>6.75</v>
       </c>
       <c r="D5" t="n">
-        <v>239</v>
+        <v>90</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -544,13 +544,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>620</v>
+        <v>1090</v>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>10.125</v>
       </c>
       <c r="D6" t="n">
-        <v>239</v>
+        <v>90</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -561,13 +561,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>660</v>
+        <v>1120</v>
       </c>
       <c r="C7" t="n">
-        <v>36</v>
+        <v>13.5</v>
       </c>
       <c r="D7" t="n">
-        <v>239</v>
+        <v>90</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -578,13 +578,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>700</v>
+        <v>1150</v>
       </c>
       <c r="C8" t="n">
-        <v>45</v>
+        <v>16.875</v>
       </c>
       <c r="D8" t="n">
-        <v>239</v>
+        <v>90</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -595,17 +595,153 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>700</v>
+        <v>1180</v>
       </c>
       <c r="C9" t="n">
-        <v>45</v>
+        <v>20.25</v>
       </c>
       <c r="D9" t="n">
-        <v>239</v>
+        <v>90</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1210</v>
+      </c>
+      <c r="C10" t="n">
+        <v>23.625</v>
+      </c>
+      <c r="D10" t="n">
+        <v>90</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1240</v>
+      </c>
+      <c r="C11" t="n">
+        <v>27</v>
+      </c>
+      <c r="D11" t="n">
+        <v>90</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1270</v>
+      </c>
+      <c r="C12" t="n">
+        <v>30.375</v>
+      </c>
+      <c r="D12" t="n">
+        <v>90</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1300</v>
+      </c>
+      <c r="C13" t="n">
+        <v>33.75</v>
+      </c>
+      <c r="D13" t="n">
+        <v>90</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1330</v>
+      </c>
+      <c r="C14" t="n">
+        <v>37.125</v>
+      </c>
+      <c r="D14" t="n">
+        <v>90</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1360</v>
+      </c>
+      <c r="C15" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>90</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1390</v>
+      </c>
+      <c r="C16" t="n">
+        <v>43.875</v>
+      </c>
+      <c r="D16" t="n">
+        <v>90</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1390</v>
+      </c>
+      <c r="C17" t="n">
+        <v>45</v>
+      </c>
+      <c r="D17" t="n">
+        <v>90</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/types/j.xlsx
+++ b/types/j.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,40 +434,40 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>md</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>inclination</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>azimuth</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>z</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -476,272 +476,266 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B3" t="n">
         <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1000</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="n">
+        <v>1031</v>
       </c>
       <c r="B4" t="n">
-        <v>1030</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>3.375</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="n">
+        <v>1061</v>
       </c>
       <c r="B5" t="n">
-        <v>1060</v>
+        <v>10.8</v>
       </c>
       <c r="C5" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="D5" t="n">
-        <v>90</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="n">
+        <v>1091</v>
       </c>
       <c r="B6" t="n">
-        <v>1090</v>
+        <v>16.2</v>
       </c>
       <c r="C6" t="n">
-        <v>10.125</v>
-      </c>
-      <c r="D6" t="n">
-        <v>90</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="n">
+        <v>1121</v>
       </c>
       <c r="B7" t="n">
-        <v>1120</v>
+        <v>21.6</v>
       </c>
       <c r="C7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>90</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="n">
+        <v>1151</v>
       </c>
       <c r="B8" t="n">
-        <v>1150</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
-        <v>16.875</v>
-      </c>
-      <c r="D8" t="n">
-        <v>90</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="n">
+        <v>1181</v>
       </c>
       <c r="B9" t="n">
-        <v>1180</v>
+        <v>32.4</v>
       </c>
       <c r="C9" t="n">
-        <v>20.25</v>
-      </c>
-      <c r="D9" t="n">
-        <v>90</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="n">
+        <v>1211</v>
       </c>
       <c r="B10" t="n">
-        <v>1210</v>
+        <v>37.8</v>
       </c>
       <c r="C10" t="n">
-        <v>23.625</v>
-      </c>
-      <c r="D10" t="n">
-        <v>90</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="n">
+        <v>1241</v>
       </c>
       <c r="B11" t="n">
-        <v>1240</v>
+        <v>43.2</v>
       </c>
       <c r="C11" t="n">
-        <v>27</v>
-      </c>
-      <c r="D11" t="n">
-        <v>90</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="n">
+        <v>1271</v>
       </c>
       <c r="B12" t="n">
-        <v>1270</v>
+        <v>48.59999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>30.375</v>
-      </c>
-      <c r="D12" t="n">
-        <v>90</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="n">
+        <v>1301</v>
       </c>
       <c r="B13" t="n">
-        <v>1300</v>
+        <v>53.99999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>33.75</v>
-      </c>
-      <c r="D13" t="n">
-        <v>90</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="n">
+        <v>1331</v>
       </c>
       <c r="B14" t="n">
-        <v>1330</v>
+        <v>59.39999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>37.125</v>
-      </c>
-      <c r="D14" t="n">
-        <v>90</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="n">
+        <v>1361</v>
       </c>
       <c r="B15" t="n">
-        <v>1360</v>
+        <v>64.8</v>
       </c>
       <c r="C15" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="D15" t="n">
-        <v>90</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="n">
+        <v>1391</v>
       </c>
       <c r="B16" t="n">
-        <v>1390</v>
+        <v>70.19999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>43.875</v>
-      </c>
-      <c r="D16" t="n">
-        <v>90</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="n">
+        <v>1421</v>
       </c>
       <c r="B17" t="n">
-        <v>1390</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>45</v>
-      </c>
-      <c r="D17" t="n">
-        <v>90</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1451</v>
+      </c>
+      <c r="B18" t="n">
+        <v>80.99999999999999</v>
+      </c>
+      <c r="C18" t="n">
+        <v>123</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1481</v>
+      </c>
+      <c r="B19" t="n">
+        <v>86.39999999999999</v>
+      </c>
+      <c r="C19" t="n">
+        <v>123</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1881</v>
+      </c>
+      <c r="B20" t="n">
+        <v>90</v>
+      </c>
+      <c r="C20" t="n">
+        <v>123</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/types/j.xlsx
+++ b/types/j.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -476,18 +476,18 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1001</v>
+        <v>100</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -501,13 +501,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1031</v>
+        <v>110</v>
       </c>
       <c r="B4" t="n">
-        <v>5.399999999999999</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -515,13 +515,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1061</v>
+        <v>120</v>
       </c>
       <c r="B5" t="n">
-        <v>10.8</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
@@ -529,13 +529,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1091</v>
+        <v>130</v>
       </c>
       <c r="B6" t="n">
-        <v>16.2</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -543,13 +543,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1121</v>
+        <v>140</v>
       </c>
       <c r="B7" t="n">
-        <v>21.6</v>
+        <v>40</v>
       </c>
       <c r="C7" t="n">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
@@ -557,13 +557,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1151</v>
+        <v>150</v>
       </c>
       <c r="B8" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
@@ -571,13 +571,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1181</v>
+        <v>160</v>
       </c>
       <c r="B9" t="n">
-        <v>32.4</v>
+        <v>60</v>
       </c>
       <c r="C9" t="n">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -585,13 +585,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1211</v>
+        <v>170</v>
       </c>
       <c r="B10" t="n">
-        <v>37.8</v>
+        <v>70</v>
       </c>
       <c r="C10" t="n">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -599,13 +599,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1241</v>
+        <v>180</v>
       </c>
       <c r="B11" t="n">
-        <v>43.2</v>
+        <v>80</v>
       </c>
       <c r="C11" t="n">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -613,13 +613,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1271</v>
+        <v>190</v>
       </c>
       <c r="B12" t="n">
-        <v>48.59999999999999</v>
+        <v>90</v>
       </c>
       <c r="C12" t="n">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -627,13 +627,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1301</v>
+        <v>200</v>
       </c>
       <c r="B13" t="n">
-        <v>53.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
@@ -641,101 +641,17 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1331</v>
+        <v>300</v>
       </c>
       <c r="B14" t="n">
-        <v>59.39999999999999</v>
+        <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1361</v>
-      </c>
-      <c r="B15" t="n">
-        <v>64.8</v>
-      </c>
-      <c r="C15" t="n">
-        <v>123</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1391</v>
-      </c>
-      <c r="B16" t="n">
-        <v>70.19999999999999</v>
-      </c>
-      <c r="C16" t="n">
-        <v>123</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1421</v>
-      </c>
-      <c r="B17" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="C17" t="n">
-        <v>123</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1451</v>
-      </c>
-      <c r="B18" t="n">
-        <v>80.99999999999999</v>
-      </c>
-      <c r="C18" t="n">
-        <v>123</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1481</v>
-      </c>
-      <c r="B19" t="n">
-        <v>86.39999999999999</v>
-      </c>
-      <c r="C19" t="n">
-        <v>123</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1881</v>
-      </c>
-      <c r="B20" t="n">
-        <v>90</v>
-      </c>
-      <c r="C20" t="n">
-        <v>123</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/types/j.xlsx
+++ b/types/j.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -501,13 +501,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>110</v>
+        <v>1010</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -515,13 +515,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>120</v>
+        <v>1020</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
@@ -529,13 +529,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130</v>
+        <v>1030</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -543,13 +543,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>140</v>
+        <v>1040</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
@@ -557,13 +557,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>150</v>
+        <v>1050</v>
       </c>
       <c r="B8" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
@@ -571,13 +571,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>160</v>
+        <v>1060</v>
       </c>
       <c r="B9" t="n">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -585,13 +585,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>170</v>
+        <v>1070</v>
       </c>
       <c r="B10" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -599,13 +599,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>180</v>
+        <v>1080</v>
       </c>
       <c r="B11" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -613,13 +613,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>190</v>
+        <v>1090</v>
       </c>
       <c r="B12" t="n">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -627,13 +627,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="B13" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
@@ -641,17 +641,857 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>300</v>
+        <v>1110</v>
       </c>
       <c r="B14" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12</v>
+      </c>
+      <c r="C15" t="n">
+        <v>180</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B16" t="n">
+        <v>13</v>
+      </c>
+      <c r="C16" t="n">
+        <v>180</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B17" t="n">
+        <v>14</v>
+      </c>
+      <c r="C17" t="n">
+        <v>180</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1150</v>
+      </c>
+      <c r="B18" t="n">
+        <v>15</v>
+      </c>
+      <c r="C18" t="n">
+        <v>180</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1160</v>
+      </c>
+      <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>180</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1170</v>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="n">
+        <v>180</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1180</v>
+      </c>
+      <c r="B21" t="n">
+        <v>18</v>
+      </c>
+      <c r="C21" t="n">
+        <v>180</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1190</v>
+      </c>
+      <c r="B22" t="n">
+        <v>19</v>
+      </c>
+      <c r="C22" t="n">
+        <v>180</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B23" t="n">
+        <v>20</v>
+      </c>
+      <c r="C23" t="n">
+        <v>180</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B24" t="n">
+        <v>21</v>
+      </c>
+      <c r="C24" t="n">
+        <v>180</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1220</v>
+      </c>
+      <c r="B25" t="n">
+        <v>22</v>
+      </c>
+      <c r="C25" t="n">
+        <v>180</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1230</v>
+      </c>
+      <c r="B26" t="n">
+        <v>23</v>
+      </c>
+      <c r="C26" t="n">
+        <v>180</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1240</v>
+      </c>
+      <c r="B27" t="n">
+        <v>24</v>
+      </c>
+      <c r="C27" t="n">
+        <v>180</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B28" t="n">
+        <v>25</v>
+      </c>
+      <c r="C28" t="n">
+        <v>180</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1260</v>
+      </c>
+      <c r="B29" t="n">
+        <v>26</v>
+      </c>
+      <c r="C29" t="n">
+        <v>180</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1270</v>
+      </c>
+      <c r="B30" t="n">
+        <v>27</v>
+      </c>
+      <c r="C30" t="n">
+        <v>180</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1280</v>
+      </c>
+      <c r="B31" t="n">
+        <v>28</v>
+      </c>
+      <c r="C31" t="n">
+        <v>180</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1290</v>
+      </c>
+      <c r="B32" t="n">
+        <v>29</v>
+      </c>
+      <c r="C32" t="n">
+        <v>180</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1300</v>
+      </c>
+      <c r="B33" t="n">
+        <v>30</v>
+      </c>
+      <c r="C33" t="n">
+        <v>180</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1310</v>
+      </c>
+      <c r="B34" t="n">
+        <v>31</v>
+      </c>
+      <c r="C34" t="n">
+        <v>180</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1320</v>
+      </c>
+      <c r="B35" t="n">
+        <v>32</v>
+      </c>
+      <c r="C35" t="n">
+        <v>180</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1330</v>
+      </c>
+      <c r="B36" t="n">
+        <v>33</v>
+      </c>
+      <c r="C36" t="n">
+        <v>180</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1340</v>
+      </c>
+      <c r="B37" t="n">
+        <v>34</v>
+      </c>
+      <c r="C37" t="n">
+        <v>180</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1350</v>
+      </c>
+      <c r="B38" t="n">
+        <v>35</v>
+      </c>
+      <c r="C38" t="n">
+        <v>180</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1360</v>
+      </c>
+      <c r="B39" t="n">
+        <v>36</v>
+      </c>
+      <c r="C39" t="n">
+        <v>180</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B40" t="n">
+        <v>37</v>
+      </c>
+      <c r="C40" t="n">
+        <v>180</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B41" t="n">
+        <v>38</v>
+      </c>
+      <c r="C41" t="n">
+        <v>180</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B42" t="n">
+        <v>39</v>
+      </c>
+      <c r="C42" t="n">
+        <v>180</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B43" t="n">
+        <v>40</v>
+      </c>
+      <c r="C43" t="n">
+        <v>180</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B44" t="n">
+        <v>41</v>
+      </c>
+      <c r="C44" t="n">
+        <v>180</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1420</v>
+      </c>
+      <c r="B45" t="n">
+        <v>42</v>
+      </c>
+      <c r="C45" t="n">
+        <v>180</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1430</v>
+      </c>
+      <c r="B46" t="n">
+        <v>43</v>
+      </c>
+      <c r="C46" t="n">
+        <v>180</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1440</v>
+      </c>
+      <c r="B47" t="n">
+        <v>44</v>
+      </c>
+      <c r="C47" t="n">
+        <v>180</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1450</v>
+      </c>
+      <c r="B48" t="n">
+        <v>45</v>
+      </c>
+      <c r="C48" t="n">
+        <v>180</v>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1460</v>
+      </c>
+      <c r="B49" t="n">
+        <v>46</v>
+      </c>
+      <c r="C49" t="n">
+        <v>180</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1470</v>
+      </c>
+      <c r="B50" t="n">
+        <v>47</v>
+      </c>
+      <c r="C50" t="n">
+        <v>180</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1480</v>
+      </c>
+      <c r="B51" t="n">
+        <v>48</v>
+      </c>
+      <c r="C51" t="n">
+        <v>180</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1490</v>
+      </c>
+      <c r="B52" t="n">
+        <v>49</v>
+      </c>
+      <c r="C52" t="n">
+        <v>180</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B53" t="n">
+        <v>50</v>
+      </c>
+      <c r="C53" t="n">
+        <v>180</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1510</v>
+      </c>
+      <c r="B54" t="n">
+        <v>51</v>
+      </c>
+      <c r="C54" t="n">
+        <v>180</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1520</v>
+      </c>
+      <c r="B55" t="n">
+        <v>52</v>
+      </c>
+      <c r="C55" t="n">
+        <v>180</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1530</v>
+      </c>
+      <c r="B56" t="n">
+        <v>53</v>
+      </c>
+      <c r="C56" t="n">
+        <v>180</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1540</v>
+      </c>
+      <c r="B57" t="n">
+        <v>54</v>
+      </c>
+      <c r="C57" t="n">
+        <v>180</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1550</v>
+      </c>
+      <c r="B58" t="n">
+        <v>55</v>
+      </c>
+      <c r="C58" t="n">
+        <v>180</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1560</v>
+      </c>
+      <c r="B59" t="n">
+        <v>56</v>
+      </c>
+      <c r="C59" t="n">
+        <v>180</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1570</v>
+      </c>
+      <c r="B60" t="n">
+        <v>57</v>
+      </c>
+      <c r="C60" t="n">
+        <v>180</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1580</v>
+      </c>
+      <c r="B61" t="n">
+        <v>58</v>
+      </c>
+      <c r="C61" t="n">
+        <v>180</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1590</v>
+      </c>
+      <c r="B62" t="n">
+        <v>59</v>
+      </c>
+      <c r="C62" t="n">
+        <v>180</v>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B63" t="n">
+        <v>60</v>
+      </c>
+      <c r="C63" t="n">
+        <v>180</v>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1610</v>
+      </c>
+      <c r="B64" t="n">
+        <v>61</v>
+      </c>
+      <c r="C64" t="n">
+        <v>180</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1620</v>
+      </c>
+      <c r="B65" t="n">
+        <v>62</v>
+      </c>
+      <c r="C65" t="n">
+        <v>180</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1630</v>
+      </c>
+      <c r="B66" t="n">
+        <v>63</v>
+      </c>
+      <c r="C66" t="n">
+        <v>180</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1640</v>
+      </c>
+      <c r="B67" t="n">
+        <v>64</v>
+      </c>
+      <c r="C67" t="n">
+        <v>180</v>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1650</v>
+      </c>
+      <c r="B68" t="n">
+        <v>65</v>
+      </c>
+      <c r="C68" t="n">
+        <v>180</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1660</v>
+      </c>
+      <c r="B69" t="n">
+        <v>66</v>
+      </c>
+      <c r="C69" t="n">
+        <v>180</v>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1670</v>
+      </c>
+      <c r="B70" t="n">
+        <v>67</v>
+      </c>
+      <c r="C70" t="n">
+        <v>180</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1680</v>
+      </c>
+      <c r="B71" t="n">
+        <v>68</v>
+      </c>
+      <c r="C71" t="n">
+        <v>180</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1690</v>
+      </c>
+      <c r="B72" t="n">
+        <v>69</v>
+      </c>
+      <c r="C72" t="n">
+        <v>180</v>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1700</v>
+      </c>
+      <c r="B73" t="n">
+        <v>70</v>
+      </c>
+      <c r="C73" t="n">
+        <v>180</v>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B74" t="n">
+        <v>70</v>
+      </c>
+      <c r="C74" t="n">
+        <v>180</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
